--- a/public/event_export.xlsx
+++ b/public/event_export.xlsx
@@ -32,9 +32,6 @@
     <t>Nom Catégorie</t>
   </si>
   <si>
-    <t>aaaaaaaaaaaaaa</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -44,34 +41,37 @@
     <t>pp</t>
   </si>
   <si>
+    <t>Educatifs</t>
+  </si>
+  <si>
+    <t>rayen</t>
+  </si>
+  <si>
+    <t>2025-05-15 11:12:00</t>
+  </si>
+  <si>
+    <t>soussa</t>
+  </si>
+  <si>
     <t>Culturels</t>
   </si>
   <si>
-    <t>gg</t>
-  </si>
-  <si>
-    <t>2029-09-14 16:15:00</t>
-  </si>
-  <si>
-    <t>mohamed</t>
-  </si>
-  <si>
-    <t>2023-01-18 15:15:00</t>
-  </si>
-  <si>
-    <t>rayen</t>
-  </si>
-  <si>
-    <t>2025-05-15 11:12:00</t>
-  </si>
-  <si>
-    <t>soussa</t>
-  </si>
-  <si>
-    <t>yy</t>
-  </si>
-  <si>
-    <t>yousef</t>
+    <t>f</t>
+  </si>
+  <si>
+    <t>2027-01-01 14:14:00</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>Sociaux</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>2027-01-12 14:15:00</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,88 +438,82 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>161</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>163</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>165</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
